--- a/태그 정리.xlsx
+++ b/태그 정리.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="289">
   <si>
     <t>IT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -523,6 +523,662 @@
   </si>
   <si>
     <t>Oracle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DynamoDB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Azure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라우드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가상현실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증강현실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hololens</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로봇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AWS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appengine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구글앱엔진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NginX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tomcat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Algoritm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다익스트라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dijkstra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VPN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Router</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RJ45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atmega</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lambda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloudWatch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>github</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MariaDB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gitblit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gitbucket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cygwin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ubuntu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CentOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해킹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hackerthon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kali</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackTrack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>btr5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ethernet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vlan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해커톤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화이트해커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold Security</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IoT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사물인터넷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PaaS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SaaS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IaaS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CISSP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCJP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OCJP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알파고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딥마인드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구글X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoogleX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eclipse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VisualStudio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AndroidStudio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안드로이드스튜디오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Watson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왓슨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>putty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntelliJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chatbot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>push notification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일 푸시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미디어 스트리밍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active Directory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VMWare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가상머신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VirtualBox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beautifulsoup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feedparser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linked list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hackerrank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redhat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jenkins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wireshark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UDP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSI7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bluetooth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trello</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NBNS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSDP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DHCP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epoch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSCP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>telnet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Payload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LLMNR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GeoIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TTL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time to live</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PacketTracer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POP3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMTP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bracket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RFC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오픈소스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opensource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>libpcap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseStudy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어공학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Agile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterfall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forensic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포렌식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리버스엔지니어링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pcap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scapy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>winpcap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>editcap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스페이스X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드게이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adobe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핀테크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜섬웨어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암호화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복호화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카스퍼스키랩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핵티비스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KISA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DBMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버호스팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데미스 하사비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간지능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코타나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S보이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tensor Flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텐소플로우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -577,8 +1233,36 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -887,10 +1571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:E271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A259" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B272" sqref="B272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1852,6 +2536,1285 @@
         <v>124</v>
       </c>
     </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>0</v>
+      </c>
+      <c r="B130" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>0</v>
+      </c>
+      <c r="B132" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>0</v>
+      </c>
+      <c r="B135" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>0</v>
+      </c>
+      <c r="B136" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>0</v>
+      </c>
+      <c r="B141" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>0</v>
+      </c>
+      <c r="B147" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>0</v>
+      </c>
+      <c r="B148" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>0</v>
+      </c>
+      <c r="B150" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>0</v>
+      </c>
+      <c r="B152" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>0</v>
+      </c>
+      <c r="B153" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>0</v>
+      </c>
+      <c r="B154" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>0</v>
+      </c>
+      <c r="B156" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>0</v>
+      </c>
+      <c r="B158" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>0</v>
+      </c>
+      <c r="B159" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>0</v>
+      </c>
+      <c r="B160" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>0</v>
+      </c>
+      <c r="B161" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>0</v>
+      </c>
+      <c r="B162" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B163" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>0</v>
+      </c>
+      <c r="B164" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>0</v>
+      </c>
+      <c r="B165" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>0</v>
+      </c>
+      <c r="B166" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>0</v>
+      </c>
+      <c r="B167" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>0</v>
+      </c>
+      <c r="B168" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>0</v>
+      </c>
+      <c r="B169" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>0</v>
+      </c>
+      <c r="B170" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>0</v>
+      </c>
+      <c r="B171" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>0</v>
+      </c>
+      <c r="B172" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>0</v>
+      </c>
+      <c r="B173" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>0</v>
+      </c>
+      <c r="B174" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>0</v>
+      </c>
+      <c r="B175" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B176" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>0</v>
+      </c>
+      <c r="B177" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>0</v>
+      </c>
+      <c r="B178" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>0</v>
+      </c>
+      <c r="B179" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B180" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>0</v>
+      </c>
+      <c r="B181" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>0</v>
+      </c>
+      <c r="B182" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B183" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>0</v>
+      </c>
+      <c r="B184" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>0</v>
+      </c>
+      <c r="B185" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>0</v>
+      </c>
+      <c r="B186" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B187" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>0</v>
+      </c>
+      <c r="B188" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>0</v>
+      </c>
+      <c r="B189" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>0</v>
+      </c>
+      <c r="B190" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>0</v>
+      </c>
+      <c r="B191" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>0</v>
+      </c>
+      <c r="B192" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>0</v>
+      </c>
+      <c r="B193" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>0</v>
+      </c>
+      <c r="B194" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>0</v>
+      </c>
+      <c r="B195" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>0</v>
+      </c>
+      <c r="B197" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>0</v>
+      </c>
+      <c r="B198" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>0</v>
+      </c>
+      <c r="B199" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>0</v>
+      </c>
+      <c r="B200" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B201" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>0</v>
+      </c>
+      <c r="B202" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>0</v>
+      </c>
+      <c r="B203" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>0</v>
+      </c>
+      <c r="B204" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>0</v>
+      </c>
+      <c r="B205" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>0</v>
+      </c>
+      <c r="B206" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>0</v>
+      </c>
+      <c r="B207" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>0</v>
+      </c>
+      <c r="B208" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>0</v>
+      </c>
+      <c r="B209" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>0</v>
+      </c>
+      <c r="B210" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>0</v>
+      </c>
+      <c r="B211" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>0</v>
+      </c>
+      <c r="B212" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>0</v>
+      </c>
+      <c r="B213" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>0</v>
+      </c>
+      <c r="B214" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>0</v>
+      </c>
+      <c r="B215" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>0</v>
+      </c>
+      <c r="B216" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>0</v>
+      </c>
+      <c r="B217" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>0</v>
+      </c>
+      <c r="B218" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>0</v>
+      </c>
+      <c r="B219" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>0</v>
+      </c>
+      <c r="B220" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>0</v>
+      </c>
+      <c r="B221" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>0</v>
+      </c>
+      <c r="B222" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>0</v>
+      </c>
+      <c r="B223" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>0</v>
+      </c>
+      <c r="B224" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>0</v>
+      </c>
+      <c r="B225" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>0</v>
+      </c>
+      <c r="B226" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>0</v>
+      </c>
+      <c r="B227" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>0</v>
+      </c>
+      <c r="B228" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>0</v>
+      </c>
+      <c r="B229" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>0</v>
+      </c>
+      <c r="B230" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>0</v>
+      </c>
+      <c r="B231" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>0</v>
+      </c>
+      <c r="B232" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>0</v>
+      </c>
+      <c r="B233" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>0</v>
+      </c>
+      <c r="B234" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>0</v>
+      </c>
+      <c r="B235" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>0</v>
+      </c>
+      <c r="B236" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>0</v>
+      </c>
+      <c r="B237" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>0</v>
+      </c>
+      <c r="B238" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>0</v>
+      </c>
+      <c r="B239" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>0</v>
+      </c>
+      <c r="B240" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>0</v>
+      </c>
+      <c r="B241" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>0</v>
+      </c>
+      <c r="B242" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>0</v>
+      </c>
+      <c r="B243" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>0</v>
+      </c>
+      <c r="B244" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>0</v>
+      </c>
+      <c r="B245" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>0</v>
+      </c>
+      <c r="B246" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>0</v>
+      </c>
+      <c r="B247" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>0</v>
+      </c>
+      <c r="B248" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>0</v>
+      </c>
+      <c r="B249" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>0</v>
+      </c>
+      <c r="B250" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>0</v>
+      </c>
+      <c r="B251" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>0</v>
+      </c>
+      <c r="B252" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>0</v>
+      </c>
+      <c r="B253" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>0</v>
+      </c>
+      <c r="B254" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>0</v>
+      </c>
+      <c r="B255" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>0</v>
+      </c>
+      <c r="B256" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>0</v>
+      </c>
+      <c r="B257" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>0</v>
+      </c>
+      <c r="B258" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>0</v>
+      </c>
+      <c r="B259" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>0</v>
+      </c>
+      <c r="B260" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B261" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B262" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B263" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B264" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B265" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B266" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B267" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B268" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B269" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B270" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B271" t="s">
+        <v>288</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
